--- a/biology/Botanique/Ixora_margaretae/Ixora_margaretae.xlsx
+++ b/biology/Botanique/Ixora_margaretae/Ixora_margaretae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixora margaretae est une espèce de plantes à fleurs de la famille des Rubiaceae. C'est un petit arbre de la forêt sclérophylle de Nouvelle-Calédonie. C'était la seule espèce du genre Captaincookia avant qu'elle ne soit reclassée dans le genre Ixora du fait de très fortes similitudes. Ce genre compte en Nouvelle-Calédonie 15 espèces dont 14 endémiques.
 L’espèce est endémique de Nouvelle-Calédonie.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L’arbre est soit monocaule (un seul tronc), soit peu ramifié. Son architecture correspond à celle de Corner. L’arbre peut mesurer 7 à 8 mètres de haut, la hauteur la plus fréquente se situant entre 3 et 4 mètres. Le diamètre du tronc est de 10 à 25 cm. L'écorce est de couleur très foncée, presque noire, et sa surface est peu rugueuse. Les feuilles sont très grandes (30 à 40 cm de long). De couleur vert foncé sur le dessus et vert clair dessous, la feuille possède une nervure médiane jaune clair. Elles sont bien lisses, épaisses et dures[1].
-Fleurs
-Les fleurs sont de belles clochettes rouge carmin ou fuchsia. Elles poussent directement sur le tronc, ce qui fait de l'espèce un arbre cauliflore. Elles font 5 cm de long et 1,5 cm de large. Les étamines et le pistil sont jaune foncé et dépassent largement de la fleur. La fleur avant son ouverture ressemble un peu à un piment, ce qui vaut à l'arbre le surnom de "fontaine piment"[1],[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre est soit monocaule (un seul tronc), soit peu ramifié. Son architecture correspond à celle de Corner. L’arbre peut mesurer 7 à 8 mètres de haut, la hauteur la plus fréquente se situant entre 3 et 4 mètres. Le diamètre du tronc est de 10 à 25 cm. L'écorce est de couleur très foncée, presque noire, et sa surface est peu rugueuse. Les feuilles sont très grandes (30 à 40 cm de long). De couleur vert foncé sur le dessus et vert clair dessous, la feuille possède une nervure médiane jaune clair. Elles sont bien lisses, épaisses et dures.
 </t>
         </is>
       </c>
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison a lieu du mois de juillet au mois d’octobre. Les fleurs sont nombreuses. Les fruits font 8 mm de long et sont de couleur rouge foncé lorsqu’ils sont murs. Ils sont mous.
-Les graines germent facilement mais l’arbre pousse lentement[1]. Ses fruits sont mangés par les Zostérops[2].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont de belles clochettes rouge carmin ou fuchsia. Elles poussent directement sur le tronc, ce qui fait de l'espèce un arbre cauliflore. Elles font 5 cm de long et 1,5 cm de large. Les étamines et le pistil sont jaune foncé et dépassent largement de la fleur. La fleur avant son ouverture ressemble un peu à un piment, ce qui vaut à l'arbre le surnom de "fontaine piment",.
 </t>
         </is>
       </c>
@@ -575,13 +595,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre est très rare : il n’est connu que de la commune de Poya et de Pouembout. On en trouve quelques spécimens au Parc zoologique et forestier ainsi que dans le jardin du Château Hagen à Nouméa et dans le Centre d'Éducation à l'Environnement à Mont Dore.
-Cet arbre pousse dans les bas-fonds humides en sous-bois, mais jamais sur des terrains en pente. Il fait partie de l’étage inférieur de la forêt. On le trouve sur des sols de couleur noire[1]. 
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu du mois de juillet au mois d’octobre. Les fleurs sont nombreuses. Les fruits font 8 mm de long et sont de couleur rouge foncé lorsqu’ils sont murs. Ils sont mous.
+Les graines germent facilement mais l’arbre pousse lentement. Ses fruits sont mangés par les Zostérops.
 </t>
         </is>
       </c>
@@ -607,12 +629,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été découvert dans les années 1970 par M. Mac Kee, récolteur pour le Muséum national d'histoire naturelle de Paris. Le premier nom latin de cette plante (Captaincookia margaretae) a été donné en son honneur : grand admirateur du capitaine Cook, Mac Kee travaillait toujours avec sa femme dont le prénom était Margareth[réf. nécessaire].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est très rare : il n’est connu que de la commune de Poya et de Pouembout. On en trouve quelques spécimens au Parc zoologique et forestier ainsi que dans le jardin du Château Hagen à Nouméa et dans le Centre d'Éducation à l'Environnement à Mont Dore.
+Cet arbre pousse dans les bas-fonds humides en sous-bois, mais jamais sur des terrains en pente. Il fait partie de l’étage inférieur de la forêt. On le trouve sur des sols de couleur noire. 
 </t>
         </is>
       </c>
@@ -638,10 +663,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été découvert dans les années 1970 par M. Mac Kee, récolteur pour le Muséum national d'histoire naturelle de Paris. Le premier nom latin de cette plante (Captaincookia margaretae) a été donné en son honneur : grand admirateur du capitaine Cook, Mac Kee travaillait toujours avec sa femme dont le prénom était Margareth[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ixora_margaretae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ixora_margaretae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce figure sur un timbre de l'OPT de 2013 dessiné par Jean-Paul Véret-Lemarinier. En légende, c'est son ancien nom de genre qui est indiqué (Captaincookia).
 </t>
